--- a/tesla_10Q.xlsx
+++ b/tesla_10Q.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RawFacts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawFacts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,20 +434,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="44" customWidth="1" min="7" max="7"/>
-    <col width="44" customWidth="1" min="8" max="8"/>
-    <col width="44" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2164,12 +2164,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="44" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
